--- a/biology/Médecine/Xavier_Francotte/Xavier_Francotte.xlsx
+++ b/biology/Médecine/Xavier_Francotte/Xavier_Francotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Francotte, né le 15 août 1854 à Liège et mort le 20 décembre 1931 à Liège, est un médecin psychiatre belge.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il termine ses études de médecine à l'Université de Liège en 1879. Après des séjours à l'étranger (Vienne, Paris et Berlin), il commence à enseigner à l'Université de Liège où il devient en 1890 titulaire de la chaire de psychiatrie. Membre de l'Académie royale de Médecine de Belgique, il s'intéresse à la classification nosologique et s'engage pour l'enseignement de la psychiatrie à l'université[1].  En 1896, il fonde avec Jean Crocq le Journal belge de Neurologie. En 1925, il est appelé à l'éméritat[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il termine ses études de médecine à l'Université de Liège en 1879. Après des séjours à l'étranger (Vienne, Paris et Berlin), il commence à enseigner à l'Université de Liège où il devient en 1890 titulaire de la chaire de psychiatrie. Membre de l'Académie royale de Médecine de Belgique, il s'intéresse à la classification nosologique et s'engage pour l'enseignement de la psychiatrie à l'université.  En 1896, il fonde avec Jean Crocq le Journal belge de Neurologie. En 1925, il est appelé à l'éméritat.
 </t>
         </is>
       </c>
